--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H2">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I2">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J2">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.320495</v>
+        <v>0.1742985</v>
       </c>
       <c r="N2">
-        <v>0.6409899999999999</v>
+        <v>0.348597</v>
       </c>
       <c r="O2">
-        <v>0.002940116641429889</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P2">
-        <v>0.001962000597822644</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q2">
-        <v>0.220209230045</v>
+        <v>0.6750125985915</v>
       </c>
       <c r="R2">
-        <v>0.8808369201799999</v>
+        <v>2.700050394366</v>
       </c>
       <c r="S2">
-        <v>1.796189329350101E-05</v>
+        <v>4.48492634828319E-05</v>
       </c>
       <c r="T2">
-        <v>8.145925959827637E-06</v>
+        <v>2.06406991939223E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H3">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I3">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J3">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.0001043566572771055</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001044590311890878</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q3">
-        <v>0.007816118185666666</v>
+        <v>0.044054987951</v>
       </c>
       <c r="R3">
-        <v>0.046896709114</v>
+        <v>0.264329927706</v>
       </c>
       <c r="S3">
-        <v>6.375404009706953E-07</v>
+        <v>2.927106496190165E-06</v>
       </c>
       <c r="T3">
-        <v>4.336978973635124E-07</v>
+        <v>2.020686183159884E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H4">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I4">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J4">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.78764200000001</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N4">
-        <v>146.362926</v>
+        <v>239.316913</v>
       </c>
       <c r="O4">
-        <v>0.4475619218406646</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P4">
-        <v>0.4480009802197716</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q4">
-        <v>33.52154972942201</v>
+        <v>308.937314111569</v>
       </c>
       <c r="R4">
-        <v>201.129298376532</v>
+        <v>1853.623884669414</v>
       </c>
       <c r="S4">
-        <v>0.00273426549445554</v>
+        <v>0.02052644799397769</v>
       </c>
       <c r="T4">
-        <v>0.001860031448945743</v>
+        <v>0.01417014034329346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H5">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I5">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J5">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.271596</v>
+        <v>0.150414</v>
       </c>
       <c r="N5">
-        <v>0.8147880000000001</v>
+        <v>0.300828</v>
       </c>
       <c r="O5">
-        <v>0.002491533157602434</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P5">
-        <v>0.00249397735237479</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q5">
-        <v>0.186611167236</v>
+        <v>0.582514163946</v>
       </c>
       <c r="R5">
-        <v>1.119667003416</v>
+        <v>2.330056655784</v>
       </c>
       <c r="S5">
-        <v>1.522138682644566E-05</v>
+        <v>3.870347201786979E-05</v>
       </c>
       <c r="T5">
-        <v>1.035461196111646E-05</v>
+        <v>1.781225959233515E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H6">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I6">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J6">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.61647133333334</v>
+        <v>11.020322</v>
       </c>
       <c r="N6">
-        <v>178.849414</v>
+        <v>33.060966</v>
       </c>
       <c r="O6">
-        <v>0.546902071703026</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P6">
-        <v>0.5474385827988417</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q6">
-        <v>40.96194090489134</v>
+        <v>42.678830801958</v>
       </c>
       <c r="R6">
-        <v>245.771645429348</v>
+        <v>256.072984811748</v>
       </c>
       <c r="S6">
-        <v>0.003341158821898612</v>
+        <v>0.002835671707121112</v>
       </c>
       <c r="T6">
-        <v>0.002272881143859594</v>
+        <v>0.001957565481821394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.337382</v>
+        <v>3.872739</v>
       </c>
       <c r="H7">
-        <v>304.012146</v>
+        <v>7.745478</v>
       </c>
       <c r="I7">
-        <v>0.9010377201377272</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J7">
-        <v>0.9185187000216628</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.320495</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N7">
-        <v>0.6409899999999999</v>
+        <v>111.303427</v>
       </c>
       <c r="O7">
-        <v>0.002940116641429889</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P7">
-        <v>0.001962000597822644</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q7">
-        <v>32.47812424409</v>
+        <v>143.683040858851</v>
       </c>
       <c r="R7">
-        <v>194.86874546454</v>
+        <v>862.0982451531061</v>
       </c>
       <c r="S7">
-        <v>0.002649155995532979</v>
+        <v>0.009546604864767716</v>
       </c>
       <c r="T7">
-        <v>0.00180213423855378</v>
+        <v>0.006590362383955367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>304.012146</v>
       </c>
       <c r="I8">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J8">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01137566666666667</v>
+        <v>0.1742985</v>
       </c>
       <c r="N8">
-        <v>0.034127</v>
+        <v>0.348597</v>
       </c>
       <c r="O8">
-        <v>0.0001043566572771055</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P8">
-        <v>0.0001044590311890878</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q8">
-        <v>1.152780278504667</v>
+        <v>17.662953676527</v>
       </c>
       <c r="R8">
-        <v>10.375022506542</v>
+        <v>105.977722059162</v>
       </c>
       <c r="S8">
-        <v>9.402928455415733E-05</v>
+        <v>0.001173563967511983</v>
       </c>
       <c r="T8">
-        <v>9.594757353332323E-05</v>
+        <v>0.0008101531315284592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>304.012146</v>
       </c>
       <c r="I9">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J9">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>48.78764200000001</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N9">
-        <v>146.362926</v>
+        <v>0.034127</v>
       </c>
       <c r="O9">
-        <v>0.4475619218406646</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P9">
-        <v>0.4480009802197716</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q9">
-        <v>4944.011914233245</v>
+        <v>1.152780278504667</v>
       </c>
       <c r="R9">
-        <v>44496.10722809921</v>
+        <v>10.375022506542</v>
       </c>
       <c r="S9">
-        <v>0.4032701736757721</v>
+        <v>7.659315775194361E-05</v>
       </c>
       <c r="T9">
-        <v>0.4114972779598953</v>
+        <v>7.931248955002978E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>304.012146</v>
       </c>
       <c r="I10">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J10">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271596</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N10">
-        <v>0.8147880000000001</v>
+        <v>239.316913</v>
       </c>
       <c r="O10">
-        <v>0.002491533157602434</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P10">
-        <v>0.00249397735237479</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q10">
-        <v>27.522827601672</v>
+        <v>8083.916477247256</v>
       </c>
       <c r="R10">
-        <v>247.705448415048</v>
+        <v>72755.2482952253</v>
       </c>
       <c r="S10">
-        <v>0.00224496535597365</v>
+        <v>0.5371124936301803</v>
       </c>
       <c r="T10">
-        <v>0.002290764835586761</v>
+        <v>0.5561819134836898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>304.012146</v>
       </c>
       <c r="I11">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J11">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>59.61647133333334</v>
+        <v>0.150414</v>
       </c>
       <c r="N11">
-        <v>178.849414</v>
+        <v>0.300828</v>
       </c>
       <c r="O11">
-        <v>0.546902071703026</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P11">
-        <v>0.5474385827988417</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q11">
-        <v>6041.37712899805</v>
+        <v>15.242560976148</v>
       </c>
       <c r="R11">
-        <v>54372.39416098245</v>
+        <v>91.45536585688801</v>
       </c>
       <c r="S11">
-        <v>0.4927793958258943</v>
+        <v>0.001012747961740045</v>
       </c>
       <c r="T11">
-        <v>0.5028325754140935</v>
+        <v>0.0006991360977043502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.502495333333333</v>
+        <v>101.337382</v>
       </c>
       <c r="H12">
-        <v>4.507486</v>
+        <v>304.012146</v>
       </c>
       <c r="I12">
-        <v>0.01335938370367848</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J12">
-        <v>0.0136185683222204</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.320495</v>
+        <v>11.020322</v>
       </c>
       <c r="N12">
-        <v>0.6409899999999999</v>
+        <v>33.060966</v>
       </c>
       <c r="O12">
-        <v>0.002940116641429889</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P12">
-        <v>0.001962000597822644</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q12">
-        <v>0.4815422418566666</v>
+        <v>1116.770580277004</v>
       </c>
       <c r="R12">
-        <v>2.88925345114</v>
+        <v>10050.93522249304</v>
       </c>
       <c r="S12">
-        <v>3.927814634643236E-05</v>
+        <v>0.07420059730622804</v>
       </c>
       <c r="T12">
-        <v>2.671963918968495E-05</v>
+        <v>0.0768349846276816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.502495333333333</v>
+        <v>101.337382</v>
       </c>
       <c r="H13">
-        <v>4.507486</v>
+        <v>304.012146</v>
       </c>
       <c r="I13">
-        <v>0.01335938370367848</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J13">
-        <v>0.0136185683222204</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01137566666666667</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N13">
-        <v>0.034127</v>
+        <v>111.303427</v>
       </c>
       <c r="O13">
-        <v>0.0001043566572771055</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P13">
-        <v>0.0001044590311890878</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q13">
-        <v>0.01709188608022222</v>
+        <v>3759.732633269372</v>
       </c>
       <c r="R13">
-        <v>0.153826974722</v>
+        <v>33837.59369942435</v>
       </c>
       <c r="S13">
-        <v>1.394140626598124E-06</v>
+        <v>0.2498045811979647</v>
       </c>
       <c r="T13">
-        <v>1.422582453121544E-06</v>
+        <v>0.2586735397433118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H14">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I14">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J14">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>48.78764200000001</v>
+        <v>0.1742985</v>
       </c>
       <c r="N14">
-        <v>146.362926</v>
+        <v>0.348597</v>
       </c>
       <c r="O14">
-        <v>0.4475619218406646</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P14">
-        <v>0.4480009802197716</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q14">
-        <v>73.30320442933734</v>
+        <v>0.4222076140125</v>
       </c>
       <c r="R14">
-        <v>659.7288398640361</v>
+        <v>2.533245684075</v>
       </c>
       <c r="S14">
-        <v>0.005979151445025197</v>
+        <v>2.805236608148672E-05</v>
       </c>
       <c r="T14">
-        <v>0.006101131957544671</v>
+        <v>1.936555045728017E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H15">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I15">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J15">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.271596</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N15">
-        <v>0.8147880000000001</v>
+        <v>0.034127</v>
       </c>
       <c r="O15">
-        <v>0.002491533157602434</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P15">
-        <v>0.00249397735237479</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q15">
-        <v>0.408071722552</v>
+        <v>0.02755556175833334</v>
       </c>
       <c r="R15">
-        <v>3.672645502968</v>
+        <v>0.248000055825</v>
       </c>
       <c r="S15">
-        <v>3.328534746284855E-05</v>
+        <v>1.830849753464884E-06</v>
       </c>
       <c r="T15">
-        <v>3.396440096738643E-05</v>
+        <v>1.895851485972628E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H16">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I16">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J16">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.61647133333334</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N16">
-        <v>178.849414</v>
+        <v>239.316913</v>
       </c>
       <c r="O16">
-        <v>0.546902071703026</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P16">
-        <v>0.5474385827988417</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q16">
-        <v>89.57346996813379</v>
+        <v>193.2344470942417</v>
       </c>
       <c r="R16">
-        <v>806.1612297132041</v>
+        <v>1739.110023848175</v>
       </c>
       <c r="S16">
-        <v>0.007306274624217405</v>
+        <v>0.01283890500676963</v>
       </c>
       <c r="T16">
-        <v>0.007455329742065537</v>
+        <v>0.01329473218066141</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.734249999999999</v>
+        <v>2.422325</v>
       </c>
       <c r="H17">
-        <v>11.4685</v>
+        <v>7.266975</v>
       </c>
       <c r="I17">
-        <v>0.0509858794921282</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J17">
-        <v>0.03465003569692389</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.320495</v>
+        <v>0.150414</v>
       </c>
       <c r="N17">
-        <v>0.6409899999999999</v>
+        <v>0.300828</v>
       </c>
       <c r="O17">
-        <v>0.002940116641429889</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P17">
-        <v>0.001962000597822644</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q17">
-        <v>1.83779845375</v>
+        <v>0.36435159255</v>
       </c>
       <c r="R17">
-        <v>7.351193814999998</v>
+        <v>2.1861095553</v>
       </c>
       <c r="S17">
-        <v>0.000149904432772745</v>
+        <v>2.420828975453457E-05</v>
       </c>
       <c r="T17">
-        <v>6.798339075194061E-05</v>
+        <v>1.671184724183707E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.734249999999999</v>
+        <v>2.422325</v>
       </c>
       <c r="H18">
-        <v>11.4685</v>
+        <v>7.266975</v>
       </c>
       <c r="I18">
-        <v>0.0509858794921282</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J18">
-        <v>0.03465003569692389</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01137566666666667</v>
+        <v>11.020322</v>
       </c>
       <c r="N18">
-        <v>0.034127</v>
+        <v>33.060966</v>
       </c>
       <c r="O18">
-        <v>0.0001043566572771055</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P18">
-        <v>0.0001044590311890878</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q18">
-        <v>0.06523091658333333</v>
+        <v>26.69480148865</v>
       </c>
       <c r="R18">
-        <v>0.3913854995</v>
+        <v>240.25321339785</v>
       </c>
       <c r="S18">
-        <v>5.320715952131826E-06</v>
+        <v>0.001773659022193891</v>
       </c>
       <c r="T18">
-        <v>3.619509159567977E-06</v>
+        <v>0.001836630278629546</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.734249999999999</v>
+        <v>2.422325</v>
       </c>
       <c r="H19">
-        <v>11.4685</v>
+        <v>7.266975</v>
       </c>
       <c r="I19">
-        <v>0.0509858794921282</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J19">
-        <v>0.03465003569692389</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.78764200000001</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N19">
-        <v>146.362926</v>
+        <v>111.303427</v>
       </c>
       <c r="O19">
-        <v>0.4475619218406646</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P19">
-        <v>0.4480009802197716</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q19">
-        <v>279.7605361385</v>
+        <v>89.87102460259169</v>
       </c>
       <c r="R19">
-        <v>1678.563216831</v>
+        <v>808.8392214233251</v>
       </c>
       <c r="S19">
-        <v>0.02281933821223343</v>
+        <v>0.00597122078948477</v>
       </c>
       <c r="T19">
-        <v>0.01552324995687198</v>
+        <v>0.006183220543024465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H20">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I20">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J20">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.271596</v>
+        <v>0.1742985</v>
       </c>
       <c r="N20">
-        <v>0.8147880000000001</v>
+        <v>0.348597</v>
       </c>
       <c r="O20">
-        <v>0.002491533157602434</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P20">
-        <v>0.00249397735237479</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q20">
-        <v>1.557399363</v>
+        <v>1.3791935282625</v>
       </c>
       <c r="R20">
-        <v>9.344396178</v>
+        <v>5.516774113049999</v>
       </c>
       <c r="S20">
-        <v>0.0001270330093241594</v>
+        <v>9.163653252092108E-05</v>
       </c>
       <c r="T20">
-        <v>8.64164042871062E-05</v>
+        <v>4.217331470030595E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H21">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I21">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J21">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>59.61647133333334</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N21">
-        <v>178.849414</v>
+        <v>0.034127</v>
       </c>
       <c r="O21">
-        <v>0.546902071703026</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P21">
-        <v>0.5474385827988417</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q21">
-        <v>341.8557507431667</v>
+        <v>0.09001365959166666</v>
       </c>
       <c r="R21">
-        <v>2051.134504459</v>
+        <v>0.54008195755</v>
       </c>
       <c r="S21">
-        <v>0.02788428312184574</v>
+        <v>5.980697759574281E-06</v>
       </c>
       <c r="T21">
-        <v>0.01896876643585329</v>
+        <v>4.12868931969392E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.182641333333333</v>
+        <v>7.912825</v>
       </c>
       <c r="H22">
-        <v>3.547924</v>
+        <v>15.82565</v>
       </c>
       <c r="I22">
-        <v>0.01051541326306721</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J22">
-        <v>0.01071942217813777</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.320495</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N22">
-        <v>0.6409899999999999</v>
+        <v>239.316913</v>
       </c>
       <c r="O22">
-        <v>0.002940116641429889</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P22">
-        <v>0.001962000597822644</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q22">
-        <v>0.3790306341266667</v>
+        <v>631.2242840364083</v>
       </c>
       <c r="R22">
-        <v>2.27418380476</v>
+        <v>3787.34570421845</v>
       </c>
       <c r="S22">
-        <v>3.091654152625648E-05</v>
+        <v>0.04193987533059845</v>
       </c>
       <c r="T22">
-        <v>2.103151272181961E-05</v>
+        <v>0.02895259421353236</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.182641333333333</v>
+        <v>7.912825</v>
       </c>
       <c r="H23">
-        <v>3.547924</v>
+        <v>15.82565</v>
       </c>
       <c r="I23">
-        <v>0.01051541326306721</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J23">
-        <v>0.01071942217813777</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01137566666666667</v>
+        <v>0.150414</v>
       </c>
       <c r="N23">
-        <v>0.034127</v>
+        <v>0.300828</v>
       </c>
       <c r="O23">
-        <v>0.0001043566572771055</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P23">
-        <v>0.0001044590311890878</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q23">
-        <v>0.01345333359422222</v>
+        <v>1.19019965955</v>
       </c>
       <c r="R23">
-        <v>0.121080002348</v>
+        <v>4.7607986382</v>
       </c>
       <c r="S23">
-        <v>1.097353378021035E-06</v>
+        <v>7.907938050299815E-05</v>
       </c>
       <c r="T23">
-        <v>1.119740455635092E-06</v>
+        <v>3.639421427798759E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.182641333333333</v>
+        <v>7.912825</v>
       </c>
       <c r="H24">
-        <v>3.547924</v>
+        <v>15.82565</v>
       </c>
       <c r="I24">
-        <v>0.01051541326306721</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J24">
-        <v>0.01071942217813777</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.78764200000001</v>
+        <v>11.020322</v>
       </c>
       <c r="N24">
-        <v>146.362926</v>
+        <v>33.060966</v>
       </c>
       <c r="O24">
-        <v>0.4475619218406646</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P24">
-        <v>0.4480009802197716</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q24">
-        <v>57.69828198506934</v>
+        <v>87.20187942964999</v>
       </c>
       <c r="R24">
-        <v>519.2845378656241</v>
+        <v>523.2112765779</v>
       </c>
       <c r="S24">
-        <v>0.004706298568967177</v>
+        <v>0.005793877143773596</v>
       </c>
       <c r="T24">
-        <v>0.00480231164319528</v>
+        <v>0.003999720374570393</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.182641333333333</v>
+        <v>7.912825</v>
       </c>
       <c r="H25">
-        <v>3.547924</v>
+        <v>15.82565</v>
       </c>
       <c r="I25">
-        <v>0.01051541326306721</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J25">
-        <v>0.01071942217813777</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.271596</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N25">
-        <v>0.8147880000000001</v>
+        <v>111.303427</v>
       </c>
       <c r="O25">
-        <v>0.002491533157602434</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P25">
-        <v>0.00249397735237479</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q25">
-        <v>0.321200655568</v>
+        <v>293.5748465837584</v>
       </c>
       <c r="R25">
-        <v>2.890805900112</v>
+        <v>1761.44907950255</v>
       </c>
       <c r="S25">
-        <v>2.619950081082437E-05</v>
+        <v>0.0195057331875594</v>
       </c>
       <c r="T25">
-        <v>2.673399614281964E-05</v>
+        <v>0.01346550444809775</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,51 +2031,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H26">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I26">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J26">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>59.61647133333334</v>
+        <v>0.1742985</v>
       </c>
       <c r="N26">
-        <v>178.849414</v>
+        <v>0.348597</v>
       </c>
       <c r="O26">
-        <v>0.546902071703026</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P26">
-        <v>0.5474385827988417</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q26">
-        <v>70.50490314628179</v>
+        <v>0.08794991920949999</v>
       </c>
       <c r="R26">
-        <v>634.5441283165361</v>
+        <v>0.5276995152569999</v>
       </c>
       <c r="S26">
-        <v>0.005750901298384935</v>
+        <v>5.843578487499826E-06</v>
       </c>
       <c r="T26">
-        <v>0.005868225285622214</v>
+        <v>4.03403098769048E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>2.023554</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H27">
-        <v>6.070662</v>
+        <v>1.513781</v>
       </c>
       <c r="I27">
-        <v>0.01799235826652378</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J27">
-        <v>0.01834142695243139</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.320495</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N27">
-        <v>0.6409899999999999</v>
+        <v>0.034127</v>
       </c>
       <c r="O27">
-        <v>0.002940116641429889</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P27">
-        <v>0.001962000597822644</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q27">
-        <v>0.6485389392299999</v>
+        <v>0.00574008935411111</v>
       </c>
       <c r="R27">
-        <v>3.891233635379999</v>
+        <v>0.05166080418699999</v>
       </c>
       <c r="S27">
-        <v>5.28996319579752E-05</v>
+        <v>3.813836666081589E-07</v>
       </c>
       <c r="T27">
-        <v>3.598589064559073E-05</v>
+        <v>3.949241545879999E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>2.023554</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H28">
-        <v>6.070662</v>
+        <v>1.513781</v>
       </c>
       <c r="I28">
-        <v>0.01799235826652378</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J28">
-        <v>0.01834142695243139</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01137566666666667</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N28">
-        <v>0.034127</v>
+        <v>239.316913</v>
       </c>
       <c r="O28">
-        <v>0.0001043566572771055</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P28">
-        <v>0.0001044590311890878</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q28">
-        <v>0.023019275786</v>
+        <v>40.25259954200589</v>
       </c>
       <c r="R28">
-        <v>0.207173482074</v>
+        <v>362.273395878053</v>
       </c>
       <c r="S28">
-        <v>1.877622365226519E-06</v>
+        <v>0.00267446777511313</v>
       </c>
       <c r="T28">
-        <v>1.915927690076405E-06</v>
+        <v>0.002769420972987222</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>2.023554</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H29">
-        <v>6.070662</v>
+        <v>1.513781</v>
       </c>
       <c r="I29">
-        <v>0.01799235826652378</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J29">
-        <v>0.01834142695243139</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>48.78764200000001</v>
+        <v>0.150414</v>
       </c>
       <c r="N29">
-        <v>146.362926</v>
+        <v>0.300828</v>
       </c>
       <c r="O29">
-        <v>0.4475619218406646</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P29">
-        <v>0.4480009802197716</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q29">
-        <v>98.724428119668</v>
+        <v>0.07589795177799999</v>
       </c>
       <c r="R29">
-        <v>888.519853077012</v>
+        <v>0.4553877106679999</v>
       </c>
       <c r="S29">
-        <v>0.008052694444211153</v>
+        <v>5.042820303208569E-06</v>
       </c>
       <c r="T29">
-        <v>0.008216977253318601</v>
+        <v>3.481239006546102E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>2.023554</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H30">
-        <v>6.070662</v>
+        <v>1.513781</v>
       </c>
       <c r="I30">
-        <v>0.01799235826652378</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J30">
-        <v>0.01834142695243139</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.271596</v>
+        <v>11.020322</v>
       </c>
       <c r="N30">
-        <v>0.8147880000000001</v>
+        <v>33.060966</v>
       </c>
       <c r="O30">
-        <v>0.002491533157602434</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P30">
-        <v>0.00249397735237479</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q30">
-        <v>0.5495891721839999</v>
+        <v>5.560784685827333</v>
       </c>
       <c r="R30">
-        <v>4.946302549656</v>
+        <v>50.047062172446</v>
       </c>
       <c r="S30">
-        <v>4.482855720450626E-05</v>
+        <v>0.0003694702855418782</v>
       </c>
       <c r="T30">
-        <v>4.574310342960045E-05</v>
+        <v>0.0003825878057670644</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>2.023554</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H31">
-        <v>6.070662</v>
+        <v>1.513781</v>
       </c>
       <c r="I31">
-        <v>0.01799235826652378</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J31">
-        <v>0.01834142695243139</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.61647133333334</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N31">
-        <v>178.849414</v>
+        <v>111.303427</v>
       </c>
       <c r="O31">
-        <v>0.546902071703026</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P31">
-        <v>0.5474385827988417</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q31">
-        <v>120.637149032452</v>
+        <v>18.72100144749855</v>
       </c>
       <c r="R31">
-        <v>1085.734341292068</v>
+        <v>168.489013027487</v>
       </c>
       <c r="S31">
-        <v>0.009840058010784922</v>
+        <v>0.001243862897275282</v>
       </c>
       <c r="T31">
-        <v>0.01004080477734752</v>
+        <v>0.001288024491186514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H32">
+        <v>3.968758</v>
+      </c>
+      <c r="I32">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J32">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.1742985</v>
+      </c>
+      <c r="N32">
+        <v>0.348597</v>
+      </c>
+      <c r="O32">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P32">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q32">
+        <v>0.230582855421</v>
+      </c>
+      <c r="R32">
+        <v>1.383497132526</v>
+      </c>
+      <c r="S32">
+        <v>1.532041218042295E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.057622783919503E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H33">
+        <v>3.968758</v>
+      </c>
+      <c r="I33">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J33">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.034127</v>
+      </c>
+      <c r="O33">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P33">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.01504908936288889</v>
+      </c>
+      <c r="R33">
+        <v>0.135441804266</v>
+      </c>
+      <c r="S33">
+        <v>9.998932989121039E-07</v>
+      </c>
+      <c r="T33">
+        <v>1.035393097095526E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H34">
+        <v>3.968758</v>
+      </c>
+      <c r="I34">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J34">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N34">
+        <v>239.316913</v>
+      </c>
+      <c r="O34">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P34">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q34">
+        <v>105.5323236671171</v>
+      </c>
+      <c r="R34">
+        <v>949.790913004054</v>
+      </c>
+      <c r="S34">
+        <v>0.00701179059469133</v>
+      </c>
+      <c r="T34">
+        <v>0.007260734308272347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H35">
+        <v>3.968758</v>
+      </c>
+      <c r="I35">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J35">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.150414</v>
+      </c>
+      <c r="N35">
+        <v>0.300828</v>
+      </c>
+      <c r="O35">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P35">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q35">
+        <v>0.198985588604</v>
+      </c>
+      <c r="R35">
+        <v>1.193913531624</v>
+      </c>
+      <c r="S35">
+        <v>1.322102300195434E-05</v>
+      </c>
+      <c r="T35">
+        <v>9.126944490082712E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H36">
+        <v>3.968758</v>
+      </c>
+      <c r="I36">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J36">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.020322</v>
+      </c>
+      <c r="N36">
+        <v>33.060966</v>
+      </c>
+      <c r="O36">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P36">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q36">
+        <v>14.57899703335867</v>
+      </c>
+      <c r="R36">
+        <v>131.210973300228</v>
+      </c>
+      <c r="S36">
+        <v>0.0009686593711419378</v>
+      </c>
+      <c r="T36">
+        <v>0.001003050252870451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H37">
+        <v>3.968758</v>
+      </c>
+      <c r="I37">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J37">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N37">
+        <v>111.303427</v>
+      </c>
+      <c r="O37">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P37">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q37">
+        <v>49.08181848151845</v>
+      </c>
+      <c r="R37">
+        <v>441.736366333666</v>
+      </c>
+      <c r="S37">
+        <v>0.003261099739304731</v>
+      </c>
+      <c r="T37">
+        <v>0.003376880475836602</v>
       </c>
     </row>
   </sheetData>
